--- a/data/Emotional-Vocab-Neg-anal.xlsx
+++ b/data/Emotional-Vocab-Neg-anal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B593"/>
+  <dimension ref="A1:B427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>가소롭/VA</t>
+          <t>가슴/NNG 앓이/NNG</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>가슴/NNG 앓이/NNG</t>
+          <t>가엾/VA</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>가슴앓이/NNG</t>
+          <t>가증/NNG 스럽/XSA</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>가엾/VA</t>
+          <t>가책/NNG</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>가증/NNG 스럽/XSA</t>
+          <t>가혹/NNG</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>가증스럽/VA</t>
+          <t>각박하/VA</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>가책/NNG</t>
+          <t>간절하/VA</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>가혹/NNG</t>
+          <t>갈기갈기/NNG</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>가혹하/VA</t>
+          <t>갈등/NNG</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>각박하/VA</t>
+          <t>감옥/NNG</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>간절하/VA</t>
+          <t>갑갑하/VA</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>갈기갈기/NNG</t>
+          <t>강도/NNG</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>갈등/NNG</t>
+          <t>강압/NNG 적/XSN</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>갈등하/VV</t>
+          <t>같잖/VA</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>감옥/NNG</t>
+          <t>개/XPN 새끼/NNG</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>갑갑하/VA</t>
+          <t>개/XPN 자식/NNG</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>강도/NNG</t>
+          <t>거부/NNG 감/XSN</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>강압/NNG 적/XSN</t>
+          <t>거북하/VA</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>강압적/NNG</t>
+          <t>거슬리/VV</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>같잖/VA</t>
+          <t>거지/NNG 같/VA</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>개/XPN 새끼/NNG</t>
+          <t>걱정/NNG</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>개/XPN 자식/NNG</t>
+          <t>겁/NNG 쟁이/XSN</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>개새끼/NNG</t>
+          <t>겁나/VV</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>개자식/NNG</t>
+          <t>격노/NNG</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>거부/NNG 감/XSN</t>
+          <t>격분/NNG</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>거부감/NNG</t>
+          <t>격앙/NNG 되/XSV</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>거북하/VA</t>
+          <t>격양/NNG 되/XSV</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>거슬리/VV</t>
+          <t>격하/VA 어/EC 지/VX</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>거지/NNG 같/VA</t>
+          <t>겸연쩍/VA</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>걱정/NNG</t>
+          <t>경멸/NNG</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>걱정하/VV</t>
+          <t>경박하/VA</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>겁/NNG 쟁이/XSN</t>
+          <t>경악/NNG</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>겁나/VV</t>
+          <t>고단하/VA</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>겁쟁이/NNG</t>
+          <t>고달프/VA</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>격노/NNG</t>
+          <t>고독/NNG</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>격노하/VV</t>
+          <t>고리타분하/VA</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>격분/NNG</t>
+          <t>고문/NNG</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>격분하/VV</t>
+          <t>고생/NNG</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>격앙/NNG 되/XSV</t>
+          <t>고약하/VA</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>격앙되/VV</t>
+          <t>고통/NNG 스럽/XSA</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>격양/NNG 되/XSV</t>
+          <t>곤란/NNG</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>격양되/VV</t>
+          <t>곤욕/NNG 스럽/XSA</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>격하/VA 어/EC 지/VX</t>
+          <t>곤혹/NNG 스럽/XSA</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>겸연쩍/VA</t>
+          <t>골치/NNG 아프/VA</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>경멸/NNG</t>
+          <t>골칫거리/VV</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>경멸하/VV</t>
+          <t>공격/NNG</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>경박하/VA</t>
+          <t>공포/NNG</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>경악/NNG</t>
+          <t>공허/NNG</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>경악하/VV</t>
+          <t>괘씸하/VA</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>고단하/VA</t>
+          <t>괴롭/VA</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>고달프/VA</t>
+          <t>괴상/NNG</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>고독/NNG</t>
+          <t>괴성/NNG</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>고독하/VA</t>
+          <t>괴팍하/VA</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>고리타분하/VA</t>
+          <t>괴한/NNG</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>고문/NNG</t>
+          <t>교도/NNG 소/XSN</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>고생/NNG</t>
+          <t>구더기/NNG</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>고약하/VA</t>
+          <t>구슬프/VA</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>고통/NNG 스럽/XSA</t>
+          <t>구역/NNG 질/XSN 나/VV</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>고통스럽/VA</t>
+          <t>구질구질/MAG</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>곤란/NNG</t>
+          <t>구차/NNG</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>곤란하/VA</t>
+          <t>구토/NNG</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>곤욕/NNG 스럽/XSA</t>
+          <t>굴욕/NNG 감/XSN</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>곤욕스럽/VA</t>
+          <t>굶주림/NNG</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>곤혹/NNG 스럽/XSA</t>
+          <t>귀찮/VA</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>곤혹스럽/VA</t>
+          <t>그/NP 자식/NNG</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>골치/NNG 아프/VA</t>
+          <t>그년/NP</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>골칫거리/VV</t>
+          <t>그놈/NP</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>공격/NNG</t>
+          <t>그리워하/VV</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>공포/NNG</t>
+          <t>근심/NNG 스럽/XSA</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>공허/NNG</t>
+          <t>글썽글썽/MAG</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>공허하/VA</t>
+          <t>급박/NNG</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>괘씸하/VA</t>
+          <t>기겁/NNG</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>괴롭/VA</t>
+          <t>기구/NNG</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>괴상/NNG</t>
+          <t>기막히/VA</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>괴상하/VA</t>
+          <t>기운없/VA</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>괴성/NNG</t>
+          <t>기이/NNG</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>괴팍하/VA</t>
+          <t>기절/NNG</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>괴한/NNG</t>
+          <t>기절/NNG 초풍/NNG</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>교도/NNG 소/XSN</t>
+          <t>기진/NNG 맥진/NNG</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>교도소/NNG</t>
+          <t>긴박/NNG</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>구더기/NNG</t>
+          <t>긴장/NNG 되/XSV</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>구슬프/VA</t>
+          <t>까무러치/VV</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>구역/NNG 질/XSN 나/VV</t>
+          <t>깡패/NNG</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>구역질/NNG 나/VV</t>
+          <t>꺼림칙하/VA</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>구질구질/MAG</t>
+          <t>꼴분견/NNG</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>구질구질하/VA</t>
+          <t>끔직하/VA</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>구차/NNG</t>
+          <t>나쁘/VA</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>구차하/VA</t>
+          <t>낙담/NNG</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>구토/NNG</t>
+          <t>낙망/NNG</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>굴욕/NNG 감/XSN</t>
+          <t>낙심/NNG</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>굴욕감/NNG</t>
+          <t>난감하/VA</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>굶주림/NNG</t>
+          <t>난처하/VA</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>귀찮/VA</t>
+          <t>남부끄럽/VA</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>그/NP 자식/NNG</t>
+          <t>남부럽/VA</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>그년/NP</t>
+          <t>납치/NNG</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>그놈/NP</t>
+          <t>낭패/NNG 스럽/XSA</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>그리워하/VV</t>
+          <t>낮뜨겁/VA</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>근심/NNG 스럽/XSA</t>
+          <t>낯설/VA</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>근심스럽/VA</t>
+          <t>냉혹하/VA</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>글썽글썽/MAG</t>
+          <t>넌더리/NNG</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>글썽글썽하/VA</t>
+          <t>노심/NNG 초사/NNG</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>급박/NNG</t>
+          <t>노여워하/VV</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>급박하/VA</t>
+          <t>노예/NNG</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>기겁/NNG</t>
+          <t>노파/NNG 심/XSN</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>기겁하/VV</t>
+          <t>놀림/NNG</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>기구/NNG</t>
+          <t>누명/NNG</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>기구하/VA</t>
+          <t>눈/NNG 물/NNG</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>기막히/VA</t>
+          <t>눈물겹/VA</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>기운없/VA</t>
+          <t>느글거리/VV</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>기이/NNG</t>
+          <t>느끼하/VA</t>
         </is>
       </c>
     </row>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>기이하/VA</t>
+          <t>달갑잖/VA</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>기절/NNG</t>
+          <t>답답하/VA</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>기절/NNG 초풍/NNG</t>
+          <t>당혹/NNG</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>기절초풍하/VV</t>
+          <t>당황/NNG</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>기절하/VA</t>
+          <t>더럽/VA</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>기진/NNG 맥진/NNG</t>
+          <t>독약/NNG</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>기진맥진하/VV</t>
+          <t>두렵/VA</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>긴박/NNG</t>
+          <t>뒤숭숭/MAG</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>긴박하/VA</t>
+          <t>따분하/VA</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>긴장/NNG 되/XSV</t>
+          <t>떨떠름하/VA</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>긴장되/VV</t>
+          <t>떨리/VV</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>까무러치/VV</t>
+          <t>뜨금하/VA</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>깡패/NNG</t>
+          <t>뜨악하/VA</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>꺼림칙하/VA</t>
+          <t>마땅찮/VA</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>꼴분견/NNG</t>
+          <t>만만찮/VA</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>끔직하/VA</t>
+          <t>망막/NNG</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>나쁘/VA</t>
+          <t>망연/NNG</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>낙담/NNG</t>
+          <t>망연/NNG 자실/NNG</t>
         </is>
       </c>
     </row>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>낙담하/VV</t>
+          <t>망측하/VA</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>낙망/NNG</t>
+          <t>맥/NNG 빠지/VV</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>낙망하/VV</t>
+          <t>머쓱하/VA</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>낙심/NNG</t>
+          <t>먹먹하/VA</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>낙심하/VV</t>
+          <t>멋쩍/VA</t>
         </is>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>난감하/VA</t>
+          <t>멸시단하/VA</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>난처하/VA</t>
+          <t>모멸/NNG 감/XSN</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>남부끄럽/VA</t>
+          <t>모욕/NNG</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>남부럽/VA</t>
+          <t>모욕/NNG 적/XSN</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>납치/NNG</t>
+          <t>몰락/NNG</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>낭패/NNG 스럽/XSA</t>
+          <t>몸서리치/VV</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>낭패스럽/VA</t>
+          <t>못/MAG 되/VV</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>낮뜨겁/VA</t>
+          <t>못마땅하/VA</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>낯설/VA</t>
+          <t>못미덥/VA</t>
         </is>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>냉혹하/VA</t>
+          <t>무/XPN 관심/NNG</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>넌더리/NNG</t>
+          <t>무력/NNG 감/XSN</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>노심/NNG 초사/NNG</t>
+          <t>무료/NNG</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>노심초사하/VV</t>
+          <t>무섭/VA</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>노여워하/VV</t>
+          <t>무시당하/VA</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>노예/NNG</t>
+          <t>무시무시/MAG</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>노파/NNG 심/XSN</t>
+          <t>무안/NNG</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>노파심/NNG</t>
+          <t>뭉클/MAG</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>놀림/NNG</t>
+          <t>미안/NNG</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>누명/NNG</t>
+          <t>민망하/VA</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>눈/NNG 물/NNG</t>
+          <t>밉/VA</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>눈물/NNG</t>
+          <t>발칙하/VA</t>
         </is>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>눈물겹/VA</t>
+          <t>배신/NNG 감/XSN</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>느글거리/VV</t>
+          <t>버럭/MAG</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>느끼하/VA</t>
+          <t>병균/NNG</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>달갑잖/VA</t>
+          <t>복받치/VV</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>답답하/VA</t>
+          <t>복수/NNG</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>당혹/NNG</t>
+          <t>복수/NNG 심/XSN</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>당혹하/VV</t>
+          <t>복종/NNG</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>당황/NNG</t>
+          <t>부끄럽/VA</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>당황하/VV</t>
+          <t>부담/NNG 스럽/XSA</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>더럽/VA</t>
+          <t>분개/NNG</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>독약/NNG</t>
+          <t>분노/NNG</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>두렵/VA</t>
+          <t>분통/NNG 터지/VV</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>뒤숭숭/MAG</t>
+          <t>분하/VA</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>뒤숭숭하/VA</t>
+          <t>불/XPN 만족/NNG</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>따분하/VA</t>
+          <t>불만/NNG</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>떨떠름하/VA</t>
+          <t>불만/NNG 스럽/XSA</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>떨리/VV</t>
+          <t>불쌍하/VA</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>뜨금하/VA</t>
+          <t>불안/NNG</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>뜨악하/VA</t>
+          <t>불안정/NNG</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>마땅찮/VA</t>
+          <t>불유쾌하/VA</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>만만찮/VA</t>
+          <t>불쾌하/VA</t>
         </is>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>망막/NNG</t>
+          <t>불편/NNG</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>망막하/VA</t>
+          <t>불행/NNG</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>망연/NNG</t>
+          <t>비극/NNG</t>
         </is>
       </c>
     </row>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>망연/NNG 자실/NNG</t>
+          <t>비난/NNG</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>망연자실하/VV</t>
+          <t>비린/NNG 내/NNG</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>망측하/VA</t>
+          <t>비아냥거리/VV</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>맥/NNG 빠지/VV</t>
+          <t>비웃/NNG 음/XSN</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>머쓱하/VA</t>
+          <t>비찬하/VA</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>먹먹하/VA</t>
+          <t>비참/NNG</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>멋쩍/VA</t>
+          <t>비통/NNG</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>멸시단하/VA</t>
+          <t>빈민/NNG</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>모멸/NNG 감/XSN</t>
+          <t>빈정거리/VV</t>
         </is>
       </c>
     </row>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>모멸감/NNG</t>
+          <t>빌어먹을/MM</t>
         </is>
       </c>
     </row>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>모욕/NNG</t>
+          <t>뼈아프/VA</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>모욕/NNG 적/XSN</t>
+          <t>뼈저리/VA</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>모욕적/NNG</t>
+          <t>뾰루퉁/MAG</t>
         </is>
       </c>
     </row>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>몰락/NNG</t>
+          <t>삐딱/MAG</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>몸서리치/VV</t>
+          <t>삐치/VV</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>못/MAG 되/VV</t>
+          <t>사기/NNG 꾼/XSN</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>못마땅하/VA</t>
+          <t>사무치/VV</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>못미덥/VA</t>
+          <t>살벌/NNG</t>
         </is>
       </c>
     </row>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>무/XPN 관심/NNG</t>
+          <t>살인/NNG</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>무관심/NNG</t>
+          <t>상실/NNG 감/XSN</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>무력/NNG 감/XSN</t>
+          <t>상처/NNG</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>무력감/NNG</t>
+          <t>새파래/NNG 지/VV</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>무료/NNG</t>
+          <t>서럽/VA</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>무료하/VA</t>
+          <t>서먹하/VA</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>무섭/VA</t>
+          <t>서운하/VA</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>무시당하/VA</t>
+          <t>섬뜩/MAG</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>무시무시/MAG</t>
+          <t>섭섭하/VA</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>무시무시하/VA</t>
+          <t>소름/NNG 끼치/VV</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>무안/NNG</t>
+          <t>소외/NNG 감/XSN</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>무안하/VA</t>
+          <t>속/NNG 앓이/NNG</t>
         </is>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>뭉클/MAG</t>
+          <t>속썩/NNG 이/VCP</t>
         </is>
       </c>
     </row>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>뭉클하/VA</t>
+          <t>속임/NNG 수/NNG</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>미안/NNG</t>
+          <t>송구/NNG</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>미안하/VA</t>
+          <t>쇼킹하/VA</t>
         </is>
       </c>
     </row>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>민망하/VA</t>
+          <t>수치/NNG 스럽/XSA</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>밉/VA</t>
+          <t>숙연하/VA</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>발칙하/VA</t>
+          <t>스산하/VA</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>배신/NNG 감/XSN</t>
+          <t>슬퍼하/VV</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>배신감/NNG</t>
+          <t>시덥잖/VA</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>버럭/MAG</t>
+          <t>시비/NNG</t>
         </is>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>병균/NNG</t>
+          <t>신경질/NNG 적/XSN</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>복받치/VV</t>
+          <t>신물/NNG 나/VV</t>
         </is>
       </c>
     </row>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>복수/NNG</t>
+          <t>신통찮/VA</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>복수/NNG 심/XSN</t>
+          <t>실망/NNG</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>복수심/NNG</t>
+          <t>실업/NNG 자/XSN</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>복종/NNG</t>
+          <t>실패/NNG</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>부끄럽/VA</t>
+          <t>싫/VA</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>부담/NNG 스럽/XSA</t>
+          <t>싫증/NNG 나/VV</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>부담스럽/VA</t>
+          <t>심각하/VA</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>분개/NNG</t>
+          <t>심드렁/MAG</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>분개하/VV</t>
+          <t>심란하/VA</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>분노/NNG</t>
+          <t>심려/NNG</t>
         </is>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>분노하/VV</t>
+          <t>심술/NNG 궃/VV</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>분통/NNG 터지/VV</t>
+          <t>심심하/VA</t>
         </is>
       </c>
     </row>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>분하/VA</t>
+          <t>심통/NNG</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>불/XPN 만족/NNG</t>
+          <t>싱숭생숭/MAG</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>불만/NNG</t>
+          <t>싸가지/NNG</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>불만/NNG 스럽/XSA</t>
+          <t>쓴웃음/NNG</t>
         </is>
       </c>
     </row>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>불만스럽/VA</t>
+          <t>쓸쓸하/VA</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>불만족하/VA</t>
+          <t>씁쓸하/VA</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>불쌍하/VA</t>
+          <t>씨부렁거리/VV</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>불안/NNG</t>
+          <t>씩씩거리/VV</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>불안정/NNG</t>
+          <t>아깝/VA</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>불안정하/VA</t>
+          <t>아니/VCN 꼽다/EF</t>
         </is>
       </c>
     </row>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>불안하/VA</t>
+          <t>아련하/VA</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>불유쾌하/VA</t>
+          <t>아뿔싸/IC</t>
         </is>
       </c>
     </row>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>불쾌하/VA</t>
+          <t>아쉽/VA</t>
         </is>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>불편/NNG</t>
+          <t>아슬아슬/MAG</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>불편하/VA</t>
+          <t>아악/NNG</t>
         </is>
       </c>
     </row>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>불행/NNG</t>
+          <t>아연실색/NNG</t>
         </is>
       </c>
     </row>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>불행하/VA</t>
+          <t>아유/IC</t>
         </is>
       </c>
     </row>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>비극/NNG</t>
+          <t>아으/IC</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>비난/NNG</t>
+          <t>아이/NNP 씨/NNB</t>
         </is>
       </c>
     </row>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>비린/NNG 내/NNG</t>
+          <t>아이고/IC</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>비린내/NNG</t>
+          <t>아찔하/VA</t>
         </is>
       </c>
     </row>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>비아냥거리/VV</t>
+          <t>아프/VA</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>비웃/NNG 음/XSN</t>
+          <t>아휴/IC</t>
         </is>
       </c>
     </row>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>비웃음/NNG</t>
+          <t>악취/NNG</t>
         </is>
       </c>
     </row>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>비찬하/VA</t>
+          <t>안쓰럽/VA</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>비참/NNG</t>
+          <t>안절부절/MAG</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>비참하/VA</t>
+          <t>안타깝/VA</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>비통/NNG</t>
+          <t>암담하/VA</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>비통하/VA</t>
+          <t>암살/NNG</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>빈민/NNG</t>
+          <t>암울/NNG</t>
         </is>
       </c>
     </row>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>빈정거리/VV</t>
+          <t>압수/NNG</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>빌어먹을/MM</t>
+          <t>애끓/VV</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>뼈아프/VA</t>
+          <t>애달프/VA</t>
         </is>
       </c>
     </row>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>뼈저리/VA</t>
+          <t>애도/NNG</t>
         </is>
       </c>
     </row>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>뾰루퉁/MAG</t>
+          <t>애석/NNG</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>뾰루퉁/MAG 하/XSA</t>
+          <t>애잔하/VA</t>
         </is>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>삐딱/MAG</t>
+          <t>애처/NNG 롭/XSA</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>삐딱하/VA</t>
+          <t>애통/NNG</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>삐치/VV</t>
+          <t>애틋하/VA</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>사기/NNG 꾼/XSN</t>
+          <t>야박/NNG</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>사기꾼/NNG</t>
+          <t>야비하/VA</t>
         </is>
       </c>
     </row>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>사무치/VV</t>
+          <t>야속/NNG</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>살벌/NNG</t>
+          <t>약오르/VV</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>살벌하/VA</t>
+          <t>얄밉/VA</t>
         </is>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>살인/NNG</t>
+          <t>어색/NNG</t>
         </is>
       </c>
     </row>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>상실/NNG 감/XSN</t>
+          <t>어이없/VA</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>상실감/NNG</t>
+          <t>억압/NNG</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>상처/NNG</t>
+          <t>억울하/VA</t>
         </is>
       </c>
     </row>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>새파래/NNG 지/VV</t>
+          <t>언짢/VA</t>
         </is>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>서럽/VA</t>
+          <t>역겹/VA</t>
         </is>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>서먹하/VA</t>
+          <t>열등/NNG 감/XSN</t>
         </is>
       </c>
     </row>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>서운하/VA</t>
+          <t>염려/NNG</t>
         </is>
       </c>
     </row>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>섬뜩/MAG</t>
+          <t>오그라들/VV</t>
         </is>
       </c>
     </row>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>섬뜩하/VA</t>
+          <t>오싹/MAG</t>
         </is>
       </c>
     </row>
@@ -3361,7 +3361,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>섭섭하/VA</t>
+          <t>와/NNG 들/XSN 와/JKB 들/XSN</t>
         </is>
       </c>
     </row>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>소름/NNG 끼치/VV</t>
+          <t>외롭/VA</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>소외/NNG 감/XSN</t>
+          <t>외톨이/NNG</t>
         </is>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>소외감/NNG</t>
+          <t>우습/VA</t>
         </is>
       </c>
     </row>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>속/NNG 앓이/NNG</t>
+          <t>우울/NNG</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>속썩/NNG 이/VCP</t>
+          <t>욱컥하/VA</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>속앓이/NNG</t>
+          <t>운분/NNG</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>속임/NNG 수/NNG</t>
+          <t>울/NNG 상/NNG</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>속임수/NNG</t>
+          <t>울/VV</t>
         </is>
       </c>
     </row>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>송구/NNG</t>
+          <t>울먹이/VV</t>
         </is>
       </c>
     </row>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>송구하/VA</t>
+          <t>울며불/VV 며/EC</t>
         </is>
       </c>
     </row>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>쇼킹하/VA</t>
+          <t>울부짖/VV</t>
         </is>
       </c>
     </row>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>수치/NNG 스럽/XSA</t>
+          <t>울음/NNG</t>
         </is>
       </c>
     </row>
@@ -3491,7 +3491,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>수치스럽/VA</t>
+          <t>울적/NNG</t>
         </is>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>숙연하/VA</t>
+          <t>울화/NNG 통/NNG</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>스산하/VA</t>
+          <t>웃음/NNG 거리/XSN</t>
         </is>
       </c>
     </row>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>슬퍼하/VV</t>
+          <t>원망/NNG</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>시덥잖/VA</t>
+          <t>원통/NNG</t>
         </is>
       </c>
     </row>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>시비/NNG</t>
+          <t>원한/NNG</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>신경질/NNG 적/XSN</t>
+          <t>웬수/NNG</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>신경질적/NNG</t>
+          <t>위축/NNG 되/XSV</t>
         </is>
       </c>
     </row>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>신물/NNG 나/VV</t>
+          <t>위험/NNG</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>신통찮/VA</t>
+          <t>유감/NNG 스럽/XSA</t>
         </is>
       </c>
     </row>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>실망/NNG</t>
+          <t>융측하/VA</t>
         </is>
       </c>
     </row>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>실망하/VV</t>
+          <t>으스스/MAG</t>
         </is>
       </c>
     </row>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>실업/NNG 자/XSN</t>
+          <t>으앙/IC</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>실업자/NNG</t>
+          <t>으이구/IC</t>
         </is>
       </c>
     </row>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>실패/NNG</t>
+          <t>을씨년스럽/VA</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>싫/VA</t>
+          <t>음울하/VA</t>
         </is>
       </c>
     </row>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>싫증/NNG 나/VV</t>
+          <t>의식/NNG 스럽/XSA</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>심각하/VA</t>
+          <t>의심/NNG</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>심드렁/MAG</t>
+          <t>이별/NNG</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>심드렁하/VA</t>
+          <t>이상/NNG</t>
         </is>
       </c>
     </row>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>심란하/VA</t>
+          <t>이혼/NNG</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>심려/NNG</t>
+          <t>자괴/NNG 감/XSN</t>
         </is>
       </c>
     </row>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>심려하/VV</t>
+          <t>자살/NNG</t>
         </is>
       </c>
     </row>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>심술/NNG 궃/VV</t>
+          <t>자책/NNG</t>
         </is>
       </c>
     </row>
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>심심하/VA</t>
+          <t>자포/NNG 자기/NNG</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>심통/NNG</t>
+          <t>잔인/NNG</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>싱숭생숭/MAG</t>
+          <t>잔혹/NNG</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>싱숭생숭하/VA</t>
+          <t>잘긍나/VV</t>
         </is>
       </c>
     </row>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>싸가지/NNG</t>
+          <t>장례/NNG 식/XSN</t>
         </is>
       </c>
     </row>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>쓴웃음/NNG</t>
+          <t>장애/NNG</t>
         </is>
       </c>
     </row>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>쓸쓸하/VA</t>
+          <t>재미없/VA</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>씁쓸하/VA</t>
+          <t>재앙/NNG</t>
         </is>
       </c>
     </row>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>씨부렁거리/VV</t>
+          <t>적개/NNG 심/XSN</t>
         </is>
       </c>
     </row>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>씩씩거리/VV</t>
+          <t>적적/NNG</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>아깝/VA</t>
+          <t>전전긍긍/NNG</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>아니/VCN 꼽다/EF</t>
+          <t>절규/NNG</t>
         </is>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>아련하/VA</t>
+          <t>절망/NNG</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>아뿔싸/IC</t>
+          <t>절박하/VA</t>
         </is>
       </c>
     </row>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>아쉽/VA</t>
+          <t>절실하/VA</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>아슬아슬/MAG</t>
+          <t>절절/NNG</t>
         </is>
       </c>
     </row>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>아슬아슬하/VA</t>
+          <t>절절/NNG 매/VV</t>
         </is>
       </c>
     </row>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>아악/NNG</t>
+          <t>정떨어지/VV</t>
         </is>
       </c>
     </row>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>아연실색/NNG</t>
+          <t>제기랄/IC</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>아연실색하/VV</t>
+          <t>조롱/NNG</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>아유/IC</t>
+          <t>조마조마/MAG</t>
         </is>
       </c>
     </row>
@@ -3941,7 +3941,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>아으/IC</t>
+          <t>조바심/NNG</t>
         </is>
       </c>
     </row>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>아이/NNP 씨/NNB</t>
+          <t>좌절/NNG 감/XSN</t>
         </is>
       </c>
     </row>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>아이고/IC</t>
+          <t>좌절/NNG 되/XSV</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>아찔하/VA</t>
+          <t>죄송하/VA</t>
         </is>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>아프/VA</t>
+          <t>죄책/NNG 감/XSN</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>아휴/IC</t>
+          <t>주눅/NNG 들/VV</t>
         </is>
       </c>
     </row>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>악취/NNG</t>
+          <t>증오/NNG</t>
         </is>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>안쓰럽/VA</t>
+          <t>지겹/VA</t>
         </is>
       </c>
     </row>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>안절부절/MAG</t>
+          <t>지긋지긋/MAG</t>
         </is>
       </c>
     </row>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>안절부절하/VV</t>
+          <t>지끈거리/VV</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>안타깝/VA</t>
+          <t>지독하/VA</t>
         </is>
       </c>
     </row>
@@ -4051,7 +4051,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>암담하/VA</t>
+          <t>지랄/NNG</t>
         </is>
       </c>
     </row>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>암살/NNG</t>
+          <t>지루하/VA</t>
         </is>
       </c>
     </row>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>암울/NNG</t>
+          <t>진노/NNG</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>암울하/VA</t>
+          <t>진저리/NNG 나/VV</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>압수/NNG</t>
+          <t>질겁/NNG</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>애끓/VV</t>
+          <t>질투/NNG</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>애달프/VA</t>
+          <t>징그럽/VA</t>
         </is>
       </c>
     </row>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>애도/NNG</t>
+          <t>짜증/NNG 나/VV</t>
         </is>
       </c>
     </row>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>애도하/VV</t>
+          <t>짠하/VA</t>
         </is>
       </c>
     </row>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>애석/NNG</t>
+          <t>쩔쩔매/VV</t>
         </is>
       </c>
     </row>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>애석하/VA</t>
+          <t>쭈뼛거리/VV</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>애잔하/VA</t>
+          <t>찜찜하/VA</t>
         </is>
       </c>
     </row>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>애처/NNG 롭/XSA</t>
+          <t>찡/MAG</t>
         </is>
       </c>
     </row>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>애처롭/VA</t>
+          <t>착잡하/VA</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>애통/NNG</t>
+          <t>착취/NNG</t>
         </is>
       </c>
     </row>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>애통하/VA</t>
+          <t>참담/NNG</t>
         </is>
       </c>
     </row>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>애틋하/VA</t>
+          <t>참속하/VA</t>
         </is>
       </c>
     </row>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>야박/NNG</t>
+          <t>참회/NNG 이/VCP 다/EF 하/SS</t>
         </is>
       </c>
     </row>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>야박하/VA</t>
+          <t>창피/NNG</t>
         </is>
       </c>
     </row>
@@ -4241,7 +4241,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>야비하/VA</t>
+          <t>처량하/VA</t>
         </is>
       </c>
     </row>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>야속/NNG</t>
+          <t>처벌/NNG</t>
         </is>
       </c>
     </row>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>야속하/VA</t>
+          <t>처절/NNG</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>약오르/VV</t>
+          <t>처참/NNG</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>얄밉/VA</t>
+          <t>철렁하/VA</t>
         </is>
       </c>
     </row>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>어색/NNG</t>
+          <t>청승/NNG 맞/VV</t>
         </is>
       </c>
     </row>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>어색하/VA</t>
+          <t>체념/NNG</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>어이없/VA</t>
+          <t>체포/NNG</t>
         </is>
       </c>
     </row>
@@ -4321,7 +4321,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>억압/NNG</t>
+          <t>초라하/VA</t>
         </is>
       </c>
     </row>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>억울하/VA</t>
+          <t>초조/NNG</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>언짢/VA</t>
+          <t>출혈/NNG</t>
         </is>
       </c>
     </row>
@@ -4351,7 +4351,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>역겹/VA</t>
+          <t>충격/NNG 적/XSN</t>
         </is>
       </c>
     </row>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>열등/NNG 감/XSN</t>
+          <t>측은/NNG</t>
         </is>
       </c>
     </row>
@@ -4371,7 +4371,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>열등감/NNG</t>
+          <t>치밀/VV 어/EC 오르/VV</t>
         </is>
       </c>
     </row>
@@ -4381,7 +4381,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>염려/NNG</t>
+          <t>치사/NNG</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>염려하/VV</t>
+          <t>치욕/NNG 적/XSN</t>
         </is>
       </c>
     </row>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>오그라들/VV</t>
+          <t>침묵/NNG</t>
         </is>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>오싹/MAG</t>
+          <t>침울하/VA</t>
         </is>
       </c>
     </row>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>오싹하/VV</t>
+          <t>침통/NNG</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>와/NNG 들/XSN 와/JKB 들/XSN</t>
+          <t>칼/NNG 날/NNG</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>와들/NNG 와/JKB 들/XSN</t>
+          <t>코/NNG 웃음/NNG</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>외롭/VA</t>
+          <t>탄복/NNG</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>외톨이/NNG</t>
+          <t>탄식/NNG</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>우습/VA</t>
+          <t>테러/NNG</t>
         </is>
       </c>
     </row>
@@ -4481,7 +4481,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>우울/NNG</t>
+          <t>통탄/NNG</t>
         </is>
       </c>
     </row>
@@ -4491,7 +4491,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>우울하/VA</t>
+          <t>패배/NNG</t>
         </is>
       </c>
     </row>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>욱컥하/VA</t>
+          <t>포로/NNG</t>
         </is>
       </c>
     </row>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>운분/NNG</t>
+          <t>폭력/NNG</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>울/NNG 상/NNG</t>
+          <t>폭탄/NNG</t>
         </is>
       </c>
     </row>
@@ -4531,7 +4531,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>울/VV</t>
+          <t>피해/NNG</t>
         </is>
       </c>
     </row>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>울먹이/VV</t>
+          <t>학대/NNG</t>
         </is>
       </c>
     </row>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>울며불/VV 며/EC</t>
+          <t>한/NNG 스럽/XSA</t>
         </is>
       </c>
     </row>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>울부짖/VV</t>
+          <t>한숨/NNG</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>울상/NNG</t>
+          <t>한심하/VA</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>울음/NNG</t>
+          <t>한탄/NNG</t>
         </is>
       </c>
     </row>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>울적/NNG</t>
+          <t>해괴하/VA</t>
         </is>
       </c>
     </row>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>울적하/VA</t>
+          <t>허무/NNG</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>울화/NNG 통/NNG</t>
+          <t>허전/NNG</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>울화통/NNG</t>
+          <t>허탈/NNG</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>웃음/NNG 거리/XSN</t>
+          <t>후회/NNG</t>
         </is>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>웃음거리/NNG</t>
+          <t>휑/MAG</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>원망/NNG</t>
+          <t>휘둥그레지/VV</t>
         </is>
       </c>
     </row>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>원망하/VV</t>
+          <t>흉/NNG 터/NNG</t>
         </is>
       </c>
     </row>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>원통/NNG</t>
+          <t>흐느낌/NNG</t>
         </is>
       </c>
     </row>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>원통하/VA</t>
+          <t>흑흑/NNG</t>
         </is>
       </c>
     </row>
@@ -4691,7 +4691,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>원한/NNG</t>
+          <t>흥분/NNG</t>
         </is>
       </c>
     </row>
@@ -4700,1666 +4700,6 @@
         <v>426</v>
       </c>
       <c r="B427" t="inlineStr">
-        <is>
-          <t>웬수/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" s="1" t="n">
-        <v>427</v>
-      </c>
-      <c r="B428" t="inlineStr">
-        <is>
-          <t>위축/NNG 되/XSV</t>
-        </is>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" s="1" t="n">
-        <v>428</v>
-      </c>
-      <c r="B429" t="inlineStr">
-        <is>
-          <t>위축되/VV</t>
-        </is>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" s="1" t="n">
-        <v>429</v>
-      </c>
-      <c r="B430" t="inlineStr">
-        <is>
-          <t>위험/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" s="1" t="n">
-        <v>430</v>
-      </c>
-      <c r="B431" t="inlineStr">
-        <is>
-          <t>유감/NNG 스럽/XSA</t>
-        </is>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" s="1" t="n">
-        <v>431</v>
-      </c>
-      <c r="B432" t="inlineStr">
-        <is>
-          <t>유감스럽/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" s="1" t="n">
-        <v>432</v>
-      </c>
-      <c r="B433" t="inlineStr">
-        <is>
-          <t>융측하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" s="1" t="n">
-        <v>433</v>
-      </c>
-      <c r="B434" t="inlineStr">
-        <is>
-          <t>으스스/MAG</t>
-        </is>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" s="1" t="n">
-        <v>434</v>
-      </c>
-      <c r="B435" t="inlineStr">
-        <is>
-          <t>으스스하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" s="1" t="n">
-        <v>435</v>
-      </c>
-      <c r="B436" t="inlineStr">
-        <is>
-          <t>으앙/IC</t>
-        </is>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" s="1" t="n">
-        <v>436</v>
-      </c>
-      <c r="B437" t="inlineStr">
-        <is>
-          <t>으이구/IC</t>
-        </is>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" s="1" t="n">
-        <v>437</v>
-      </c>
-      <c r="B438" t="inlineStr">
-        <is>
-          <t>을씨년스럽/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" s="1" t="n">
-        <v>438</v>
-      </c>
-      <c r="B439" t="inlineStr">
-        <is>
-          <t>음울하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" s="1" t="n">
-        <v>439</v>
-      </c>
-      <c r="B440" t="inlineStr">
-        <is>
-          <t>의식/NNG 스럽/XSA</t>
-        </is>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" s="1" t="n">
-        <v>440</v>
-      </c>
-      <c r="B441" t="inlineStr">
-        <is>
-          <t>의심/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" s="1" t="n">
-        <v>441</v>
-      </c>
-      <c r="B442" t="inlineStr">
-        <is>
-          <t>이별/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" s="1" t="n">
-        <v>442</v>
-      </c>
-      <c r="B443" t="inlineStr">
-        <is>
-          <t>이상/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" s="1" t="n">
-        <v>443</v>
-      </c>
-      <c r="B444" t="inlineStr">
-        <is>
-          <t>이상하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" s="1" t="n">
-        <v>444</v>
-      </c>
-      <c r="B445" t="inlineStr">
-        <is>
-          <t>이혼/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" s="1" t="n">
-        <v>445</v>
-      </c>
-      <c r="B446" t="inlineStr">
-        <is>
-          <t>자괴/NNG 감/XSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" s="1" t="n">
-        <v>446</v>
-      </c>
-      <c r="B447" t="inlineStr">
-        <is>
-          <t>자괴감/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" s="1" t="n">
-        <v>447</v>
-      </c>
-      <c r="B448" t="inlineStr">
-        <is>
-          <t>자살/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" s="1" t="n">
-        <v>448</v>
-      </c>
-      <c r="B449" t="inlineStr">
-        <is>
-          <t>자책/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" s="1" t="n">
-        <v>449</v>
-      </c>
-      <c r="B450" t="inlineStr">
-        <is>
-          <t>자책하/VV</t>
-        </is>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" s="1" t="n">
-        <v>450</v>
-      </c>
-      <c r="B451" t="inlineStr">
-        <is>
-          <t>자포/NNG 자기/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" s="1" t="n">
-        <v>451</v>
-      </c>
-      <c r="B452" t="inlineStr">
-        <is>
-          <t>자포자기하/VV</t>
-        </is>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" s="1" t="n">
-        <v>452</v>
-      </c>
-      <c r="B453" t="inlineStr">
-        <is>
-          <t>잔인/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" s="1" t="n">
-        <v>453</v>
-      </c>
-      <c r="B454" t="inlineStr">
-        <is>
-          <t>잔인하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" s="1" t="n">
-        <v>454</v>
-      </c>
-      <c r="B455" t="inlineStr">
-        <is>
-          <t>잔혹/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" s="1" t="n">
-        <v>455</v>
-      </c>
-      <c r="B456" t="inlineStr">
-        <is>
-          <t>잔혹하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" s="1" t="n">
-        <v>456</v>
-      </c>
-      <c r="B457" t="inlineStr">
-        <is>
-          <t>잘긍나/VV</t>
-        </is>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" s="1" t="n">
-        <v>457</v>
-      </c>
-      <c r="B458" t="inlineStr">
-        <is>
-          <t>장례/NNG 식/XSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" s="1" t="n">
-        <v>458</v>
-      </c>
-      <c r="B459" t="inlineStr">
-        <is>
-          <t>장례식/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" s="1" t="n">
-        <v>459</v>
-      </c>
-      <c r="B460" t="inlineStr">
-        <is>
-          <t>장애/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" s="1" t="n">
-        <v>460</v>
-      </c>
-      <c r="B461" t="inlineStr">
-        <is>
-          <t>재미없/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" s="1" t="n">
-        <v>461</v>
-      </c>
-      <c r="B462" t="inlineStr">
-        <is>
-          <t>재앙/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" s="1" t="n">
-        <v>462</v>
-      </c>
-      <c r="B463" t="inlineStr">
-        <is>
-          <t>적개/NNG 심/XSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" s="1" t="n">
-        <v>463</v>
-      </c>
-      <c r="B464" t="inlineStr">
-        <is>
-          <t>적개심/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" s="1" t="n">
-        <v>464</v>
-      </c>
-      <c r="B465" t="inlineStr">
-        <is>
-          <t>적적/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" s="1" t="n">
-        <v>465</v>
-      </c>
-      <c r="B466" t="inlineStr">
-        <is>
-          <t>적적하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" s="1" t="n">
-        <v>466</v>
-      </c>
-      <c r="B467" t="inlineStr">
-        <is>
-          <t>전전긍긍/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" s="1" t="n">
-        <v>467</v>
-      </c>
-      <c r="B468" t="inlineStr">
-        <is>
-          <t>전전긍긍하/VV</t>
-        </is>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" s="1" t="n">
-        <v>468</v>
-      </c>
-      <c r="B469" t="inlineStr">
-        <is>
-          <t>절규/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" s="1" t="n">
-        <v>469</v>
-      </c>
-      <c r="B470" t="inlineStr">
-        <is>
-          <t>절규하/VV</t>
-        </is>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" s="1" t="n">
-        <v>470</v>
-      </c>
-      <c r="B471" t="inlineStr">
-        <is>
-          <t>절망/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" s="1" t="n">
-        <v>471</v>
-      </c>
-      <c r="B472" t="inlineStr">
-        <is>
-          <t>절망하/VV</t>
-        </is>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" s="1" t="n">
-        <v>472</v>
-      </c>
-      <c r="B473" t="inlineStr">
-        <is>
-          <t>절박하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" s="1" t="n">
-        <v>473</v>
-      </c>
-      <c r="B474" t="inlineStr">
-        <is>
-          <t>절실하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" s="1" t="n">
-        <v>474</v>
-      </c>
-      <c r="B475" t="inlineStr">
-        <is>
-          <t>절절/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" s="1" t="n">
-        <v>475</v>
-      </c>
-      <c r="B476" t="inlineStr">
-        <is>
-          <t>절절/NNG 매/VV</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" s="1" t="n">
-        <v>476</v>
-      </c>
-      <c r="B477" t="inlineStr">
-        <is>
-          <t>절절하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" s="1" t="n">
-        <v>477</v>
-      </c>
-      <c r="B478" t="inlineStr">
-        <is>
-          <t>정떨어지/VV</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" s="1" t="n">
-        <v>478</v>
-      </c>
-      <c r="B479" t="inlineStr">
-        <is>
-          <t>제기랄/IC</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" s="1" t="n">
-        <v>479</v>
-      </c>
-      <c r="B480" t="inlineStr">
-        <is>
-          <t>조롱/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="B481" t="inlineStr">
-        <is>
-          <t>조마조마/MAG</t>
-        </is>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" s="1" t="n">
-        <v>481</v>
-      </c>
-      <c r="B482" t="inlineStr">
-        <is>
-          <t>조마조마하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" s="1" t="n">
-        <v>482</v>
-      </c>
-      <c r="B483" t="inlineStr">
-        <is>
-          <t>조바심/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" s="1" t="n">
-        <v>483</v>
-      </c>
-      <c r="B484" t="inlineStr">
-        <is>
-          <t>조바심하/VV</t>
-        </is>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" s="1" t="n">
-        <v>484</v>
-      </c>
-      <c r="B485" t="inlineStr">
-        <is>
-          <t>좌절/NNG 감/XSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" s="1" t="n">
-        <v>485</v>
-      </c>
-      <c r="B486" t="inlineStr">
-        <is>
-          <t>좌절/NNG 되/XSV</t>
-        </is>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" s="1" t="n">
-        <v>486</v>
-      </c>
-      <c r="B487" t="inlineStr">
-        <is>
-          <t>좌절감/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" s="1" t="n">
-        <v>487</v>
-      </c>
-      <c r="B488" t="inlineStr">
-        <is>
-          <t>좌절되/VV</t>
-        </is>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" s="1" t="n">
-        <v>488</v>
-      </c>
-      <c r="B489" t="inlineStr">
-        <is>
-          <t>죄송하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" s="1" t="n">
-        <v>489</v>
-      </c>
-      <c r="B490" t="inlineStr">
-        <is>
-          <t>죄책/NNG 감/XSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" s="1" t="n">
-        <v>490</v>
-      </c>
-      <c r="B491" t="inlineStr">
-        <is>
-          <t>죄책감/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" s="1" t="n">
-        <v>491</v>
-      </c>
-      <c r="B492" t="inlineStr">
-        <is>
-          <t>주눅/NNG 들/VV</t>
-        </is>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" s="1" t="n">
-        <v>492</v>
-      </c>
-      <c r="B493" t="inlineStr">
-        <is>
-          <t>증오/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" s="1" t="n">
-        <v>493</v>
-      </c>
-      <c r="B494" t="inlineStr">
-        <is>
-          <t>증오하/VV</t>
-        </is>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" s="1" t="n">
-        <v>494</v>
-      </c>
-      <c r="B495" t="inlineStr">
-        <is>
-          <t>지겹/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" s="1" t="n">
-        <v>495</v>
-      </c>
-      <c r="B496" t="inlineStr">
-        <is>
-          <t>지긋지긋/MAG</t>
-        </is>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" s="1" t="n">
-        <v>496</v>
-      </c>
-      <c r="B497" t="inlineStr">
-        <is>
-          <t>지긋지긋하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" s="1" t="n">
-        <v>497</v>
-      </c>
-      <c r="B498" t="inlineStr">
-        <is>
-          <t>지끈거리/VV</t>
-        </is>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" s="1" t="n">
-        <v>498</v>
-      </c>
-      <c r="B499" t="inlineStr">
-        <is>
-          <t>지독하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" s="1" t="n">
-        <v>499</v>
-      </c>
-      <c r="B500" t="inlineStr">
-        <is>
-          <t>지랄/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" s="1" t="n">
-        <v>500</v>
-      </c>
-      <c r="B501" t="inlineStr">
-        <is>
-          <t>지랄하/VV</t>
-        </is>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" s="1" t="n">
-        <v>501</v>
-      </c>
-      <c r="B502" t="inlineStr">
-        <is>
-          <t>지루하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" s="1" t="n">
-        <v>502</v>
-      </c>
-      <c r="B503" t="inlineStr">
-        <is>
-          <t>진노/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" s="1" t="n">
-        <v>503</v>
-      </c>
-      <c r="B504" t="inlineStr">
-        <is>
-          <t>진노하/VV</t>
-        </is>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" s="1" t="n">
-        <v>504</v>
-      </c>
-      <c r="B505" t="inlineStr">
-        <is>
-          <t>진저리/NNG 나/VV</t>
-        </is>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" s="1" t="n">
-        <v>505</v>
-      </c>
-      <c r="B506" t="inlineStr">
-        <is>
-          <t>질겁/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" s="1" t="n">
-        <v>506</v>
-      </c>
-      <c r="B507" t="inlineStr">
-        <is>
-          <t>질겁하/VV</t>
-        </is>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" s="1" t="n">
-        <v>507</v>
-      </c>
-      <c r="B508" t="inlineStr">
-        <is>
-          <t>질투/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" s="1" t="n">
-        <v>508</v>
-      </c>
-      <c r="B509" t="inlineStr">
-        <is>
-          <t>질투하/VV</t>
-        </is>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" s="1" t="n">
-        <v>509</v>
-      </c>
-      <c r="B510" t="inlineStr">
-        <is>
-          <t>징그럽/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" s="1" t="n">
-        <v>510</v>
-      </c>
-      <c r="B511" t="inlineStr">
-        <is>
-          <t>짜증/NNG 나/VV</t>
-        </is>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" s="1" t="n">
-        <v>511</v>
-      </c>
-      <c r="B512" t="inlineStr">
-        <is>
-          <t>짠하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" s="1" t="n">
-        <v>512</v>
-      </c>
-      <c r="B513" t="inlineStr">
-        <is>
-          <t>쩔쩔매/VV</t>
-        </is>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" s="1" t="n">
-        <v>513</v>
-      </c>
-      <c r="B514" t="inlineStr">
-        <is>
-          <t>쭈뼛거리/VV</t>
-        </is>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" s="1" t="n">
-        <v>514</v>
-      </c>
-      <c r="B515" t="inlineStr">
-        <is>
-          <t>찜찜하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" s="1" t="n">
-        <v>515</v>
-      </c>
-      <c r="B516" t="inlineStr">
-        <is>
-          <t>찡/MAG</t>
-        </is>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" s="1" t="n">
-        <v>516</v>
-      </c>
-      <c r="B517" t="inlineStr">
-        <is>
-          <t>찡하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" s="1" t="n">
-        <v>517</v>
-      </c>
-      <c r="B518" t="inlineStr">
-        <is>
-          <t>착잡하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" s="1" t="n">
-        <v>518</v>
-      </c>
-      <c r="B519" t="inlineStr">
-        <is>
-          <t>착취/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" s="1" t="n">
-        <v>519</v>
-      </c>
-      <c r="B520" t="inlineStr">
-        <is>
-          <t>참담/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" s="1" t="n">
-        <v>520</v>
-      </c>
-      <c r="B521" t="inlineStr">
-        <is>
-          <t>참담하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" s="1" t="n">
-        <v>521</v>
-      </c>
-      <c r="B522" t="inlineStr">
-        <is>
-          <t>참속하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" s="1" t="n">
-        <v>522</v>
-      </c>
-      <c r="B523" t="inlineStr">
-        <is>
-          <t>참회/NNG 이/VCP 다/EF 하/SS</t>
-        </is>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" s="1" t="n">
-        <v>523</v>
-      </c>
-      <c r="B524" t="inlineStr">
-        <is>
-          <t>창피/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" s="1" t="n">
-        <v>524</v>
-      </c>
-      <c r="B525" t="inlineStr">
-        <is>
-          <t>처량하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" s="1" t="n">
-        <v>525</v>
-      </c>
-      <c r="B526" t="inlineStr">
-        <is>
-          <t>처벌/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" s="1" t="n">
-        <v>526</v>
-      </c>
-      <c r="B527" t="inlineStr">
-        <is>
-          <t>처절/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" s="1" t="n">
-        <v>527</v>
-      </c>
-      <c r="B528" t="inlineStr">
-        <is>
-          <t>처절하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" s="1" t="n">
-        <v>528</v>
-      </c>
-      <c r="B529" t="inlineStr">
-        <is>
-          <t>처참/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" s="1" t="n">
-        <v>529</v>
-      </c>
-      <c r="B530" t="inlineStr">
-        <is>
-          <t>처참하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" s="1" t="n">
-        <v>530</v>
-      </c>
-      <c r="B531" t="inlineStr">
-        <is>
-          <t>철렁하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" s="1" t="n">
-        <v>531</v>
-      </c>
-      <c r="B532" t="inlineStr">
-        <is>
-          <t>청승/NNG 맞/VV</t>
-        </is>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" s="1" t="n">
-        <v>532</v>
-      </c>
-      <c r="B533" t="inlineStr">
-        <is>
-          <t>체념/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" s="1" t="n">
-        <v>533</v>
-      </c>
-      <c r="B534" t="inlineStr">
-        <is>
-          <t>체포/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" s="1" t="n">
-        <v>534</v>
-      </c>
-      <c r="B535" t="inlineStr">
-        <is>
-          <t>초라하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" s="1" t="n">
-        <v>535</v>
-      </c>
-      <c r="B536" t="inlineStr">
-        <is>
-          <t>초조/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" s="1" t="n">
-        <v>536</v>
-      </c>
-      <c r="B537" t="inlineStr">
-        <is>
-          <t>초조하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" s="1" t="n">
-        <v>537</v>
-      </c>
-      <c r="B538" t="inlineStr">
-        <is>
-          <t>출혈/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" s="1" t="n">
-        <v>538</v>
-      </c>
-      <c r="B539" t="inlineStr">
-        <is>
-          <t>충격/NNG 적/XSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" s="1" t="n">
-        <v>539</v>
-      </c>
-      <c r="B540" t="inlineStr">
-        <is>
-          <t>충격적/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" s="1" t="n">
-        <v>540</v>
-      </c>
-      <c r="B541" t="inlineStr">
-        <is>
-          <t>측은/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" s="1" t="n">
-        <v>541</v>
-      </c>
-      <c r="B542" t="inlineStr">
-        <is>
-          <t>측은하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" s="1" t="n">
-        <v>542</v>
-      </c>
-      <c r="B543" t="inlineStr">
-        <is>
-          <t>치밀/VV 어/EC 오르/VV</t>
-        </is>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" s="1" t="n">
-        <v>543</v>
-      </c>
-      <c r="B544" t="inlineStr">
-        <is>
-          <t>치사/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" s="1" t="n">
-        <v>544</v>
-      </c>
-      <c r="B545" t="inlineStr">
-        <is>
-          <t>치사하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" s="1" t="n">
-        <v>545</v>
-      </c>
-      <c r="B546" t="inlineStr">
-        <is>
-          <t>치욕/NNG 적/XSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" s="1" t="n">
-        <v>546</v>
-      </c>
-      <c r="B547" t="inlineStr">
-        <is>
-          <t>치욕적/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" s="1" t="n">
-        <v>547</v>
-      </c>
-      <c r="B548" t="inlineStr">
-        <is>
-          <t>침묵/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" s="1" t="n">
-        <v>548</v>
-      </c>
-      <c r="B549" t="inlineStr">
-        <is>
-          <t>침울하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" s="1" t="n">
-        <v>549</v>
-      </c>
-      <c r="B550" t="inlineStr">
-        <is>
-          <t>침통/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" s="1" t="n">
-        <v>550</v>
-      </c>
-      <c r="B551" t="inlineStr">
-        <is>
-          <t>침통하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" s="1" t="n">
-        <v>551</v>
-      </c>
-      <c r="B552" t="inlineStr">
-        <is>
-          <t>칼/NNG 날/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" s="1" t="n">
-        <v>552</v>
-      </c>
-      <c r="B553" t="inlineStr">
-        <is>
-          <t>칼날/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" s="1" t="n">
-        <v>553</v>
-      </c>
-      <c r="B554" t="inlineStr">
-        <is>
-          <t>코/NNG 웃음/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" s="1" t="n">
-        <v>554</v>
-      </c>
-      <c r="B555" t="inlineStr">
-        <is>
-          <t>코웃음/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" s="1" t="n">
-        <v>555</v>
-      </c>
-      <c r="B556" t="inlineStr">
-        <is>
-          <t>탄복/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" s="1" t="n">
-        <v>556</v>
-      </c>
-      <c r="B557" t="inlineStr">
-        <is>
-          <t>탄복하/VV</t>
-        </is>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" s="1" t="n">
-        <v>557</v>
-      </c>
-      <c r="B558" t="inlineStr">
-        <is>
-          <t>탄식/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" s="1" t="n">
-        <v>558</v>
-      </c>
-      <c r="B559" t="inlineStr">
-        <is>
-          <t>탄식하/VV</t>
-        </is>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" s="1" t="n">
-        <v>559</v>
-      </c>
-      <c r="B560" t="inlineStr">
-        <is>
-          <t>테러/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" s="1" t="n">
-        <v>560</v>
-      </c>
-      <c r="B561" t="inlineStr">
-        <is>
-          <t>통탄/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" s="1" t="n">
-        <v>561</v>
-      </c>
-      <c r="B562" t="inlineStr">
-        <is>
-          <t>통탄하/VV</t>
-        </is>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" s="1" t="n">
-        <v>562</v>
-      </c>
-      <c r="B563" t="inlineStr">
-        <is>
-          <t>패배/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" s="1" t="n">
-        <v>563</v>
-      </c>
-      <c r="B564" t="inlineStr">
-        <is>
-          <t>포로/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" s="1" t="n">
-        <v>564</v>
-      </c>
-      <c r="B565" t="inlineStr">
-        <is>
-          <t>폭력/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" s="1" t="n">
-        <v>565</v>
-      </c>
-      <c r="B566" t="inlineStr">
-        <is>
-          <t>폭탄/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" s="1" t="n">
-        <v>566</v>
-      </c>
-      <c r="B567" t="inlineStr">
-        <is>
-          <t>피해/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" s="1" t="n">
-        <v>567</v>
-      </c>
-      <c r="B568" t="inlineStr">
-        <is>
-          <t>학대/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" s="1" t="n">
-        <v>568</v>
-      </c>
-      <c r="B569" t="inlineStr">
-        <is>
-          <t>한/NNG 스럽/XSA</t>
-        </is>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" s="1" t="n">
-        <v>569</v>
-      </c>
-      <c r="B570" t="inlineStr">
-        <is>
-          <t>한숨/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" s="1" t="n">
-        <v>570</v>
-      </c>
-      <c r="B571" t="inlineStr">
-        <is>
-          <t>한스럽/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" s="1" t="n">
-        <v>571</v>
-      </c>
-      <c r="B572" t="inlineStr">
-        <is>
-          <t>한심하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" s="1" t="n">
-        <v>572</v>
-      </c>
-      <c r="B573" t="inlineStr">
-        <is>
-          <t>한탄/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" s="1" t="n">
-        <v>573</v>
-      </c>
-      <c r="B574" t="inlineStr">
-        <is>
-          <t>한탄하/VV</t>
-        </is>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" s="1" t="n">
-        <v>574</v>
-      </c>
-      <c r="B575" t="inlineStr">
-        <is>
-          <t>해괴하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" s="1" t="n">
-        <v>575</v>
-      </c>
-      <c r="B576" t="inlineStr">
-        <is>
-          <t>허무/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" s="1" t="n">
-        <v>576</v>
-      </c>
-      <c r="B577" t="inlineStr">
-        <is>
-          <t>허무하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" s="1" t="n">
-        <v>577</v>
-      </c>
-      <c r="B578" t="inlineStr">
-        <is>
-          <t>허전/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" s="1" t="n">
-        <v>578</v>
-      </c>
-      <c r="B579" t="inlineStr">
-        <is>
-          <t>허전하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" s="1" t="n">
-        <v>579</v>
-      </c>
-      <c r="B580" t="inlineStr">
-        <is>
-          <t>허탈/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" s="1" t="n">
-        <v>580</v>
-      </c>
-      <c r="B581" t="inlineStr">
-        <is>
-          <t>허탈하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" s="1" t="n">
-        <v>581</v>
-      </c>
-      <c r="B582" t="inlineStr">
-        <is>
-          <t>후회/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" s="1" t="n">
-        <v>582</v>
-      </c>
-      <c r="B583" t="inlineStr">
-        <is>
-          <t>후회하/VV</t>
-        </is>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" s="1" t="n">
-        <v>583</v>
-      </c>
-      <c r="B584" t="inlineStr">
-        <is>
-          <t>휑/MAG</t>
-        </is>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" s="1" t="n">
-        <v>584</v>
-      </c>
-      <c r="B585" t="inlineStr">
-        <is>
-          <t>휑하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" s="1" t="n">
-        <v>585</v>
-      </c>
-      <c r="B586" t="inlineStr">
-        <is>
-          <t>휘둥그레지/VV</t>
-        </is>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" s="1" t="n">
-        <v>586</v>
-      </c>
-      <c r="B587" t="inlineStr">
-        <is>
-          <t>흉/NNG 터/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" s="1" t="n">
-        <v>587</v>
-      </c>
-      <c r="B588" t="inlineStr">
-        <is>
-          <t>흉터/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" s="1" t="n">
-        <v>588</v>
-      </c>
-      <c r="B589" t="inlineStr">
-        <is>
-          <t>흐느낌/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" s="1" t="n">
-        <v>589</v>
-      </c>
-      <c r="B590" t="inlineStr">
-        <is>
-          <t>흑흑/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" s="1" t="n">
-        <v>590</v>
-      </c>
-      <c r="B591" t="inlineStr">
-        <is>
-          <t>흥분/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" s="1" t="n">
-        <v>591</v>
-      </c>
-      <c r="B592" t="inlineStr">
-        <is>
-          <t>흥분하/VV</t>
-        </is>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" s="1" t="n">
-        <v>592</v>
-      </c>
-      <c r="B593" t="inlineStr">
         <is>
           <t>희롱/NNG</t>
         </is>

--- a/data/Emotional-Vocab-Neg-anal.xlsx
+++ b/data/Emotional-Vocab-Neg-anal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B427"/>
+  <dimension ref="A1:B428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>가관/NNG 이/VCP</t>
+          <t>가관[02]/NNG 이[01]/VCP</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>가난/NNG</t>
+          <t>가난[01]/NNG</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>가소/NNG 롭/XSA</t>
+          <t>가소롭/VA</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>가슴/NNG 앓이/NNG</t>
+          <t>가슴앓이/NNG</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>가증/NNG 스럽/XSA</t>
+          <t>가증스럽/VA</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>가책/NNG</t>
+          <t>가책[01]/NNG</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>가혹/NNG</t>
+          <t>가혹하/VA</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>갈등/NNG</t>
+          <t>갈등하/VV</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>감옥/NNG</t>
+          <t>감옥[02]/NNG</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>강도/NNG</t>
+          <t>강도[05]/NNG</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>강압/NNG 적/XSN</t>
+          <t>강압적/NNG</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>개/XPN 새끼/NNG</t>
+          <t>개새끼/NNG</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>개/XPN 자식/NNG</t>
+          <t>개자식/NNG</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>거부/NNG 감/XSN</t>
+          <t>거부감/NNG</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>거슬리/VV</t>
+          <t>거슬리[01]/VV</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>거지/NNG 같/VA</t>
+          <t>거지[01]/NNG 같/VA</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>걱정/NNG</t>
+          <t>걱정하/VV</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>겁/NNG 쟁이/XSN</t>
+          <t>겁나[02]/VV</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>겁나/VV</t>
+          <t>겁쟁이/NNG</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>격노/NNG</t>
+          <t>격노하/VV</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>격분/NNG</t>
+          <t>격분하[01]/VV</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>격앙/NNG 되/XSV</t>
+          <t>격앙되/VV</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>격양/NNG 되/XSV</t>
+          <t>격양되[01]/VV</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>격하/VA 어/EC 지/VX</t>
+          <t>격하[02]/VA 어/EC 지[04]/VX</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>경멸/NNG</t>
+          <t>경멸하/VV</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>경악/NNG</t>
+          <t>경악하/VV</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>고단하/VA</t>
+          <t>고단하[01]/VA</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>고독/NNG</t>
+          <t>고독하[02]/VA</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>고문/NNG</t>
+          <t>고문[04]/NNG</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>고통/NNG 스럽/XSA</t>
+          <t>고통스럽/VA</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>곤란/NNG</t>
+          <t>곤란하/VA</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>곤욕/NNG 스럽/XSA</t>
+          <t>곤욕스럽/VA</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>곤혹/NNG 스럽/XSA</t>
+          <t>곤혹스럽/VA</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>골치/NNG 아프/VA</t>
+          <t>골치[01]/NNG 아프/VA</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>공격/NNG</t>
+          <t>공격[02]/NNG</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>공포/NNG</t>
+          <t>공포[08]/NNG</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>공허/NNG</t>
+          <t>공허하[02]/VA</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>괴상/NNG</t>
+          <t>괴상하[02]/VA</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>괴성/NNG</t>
+          <t>괴성[01]/NNG</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>괴한/NNG</t>
+          <t>괴한[01]/NNG</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>교도/NNG 소/XSN</t>
+          <t>교도소/NNG</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>구더기/NNG</t>
+          <t>구더기[01]/NNG</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>구역/NNG 질/XSN 나/VV</t>
+          <t>구역질/NNG 나[01]/VV</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>구질구질/MAG</t>
+          <t>구질구질하/VA</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>구차/NNG</t>
+          <t>구차하[02]/VA</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>구토/NNG</t>
+          <t>구토[01]/NNG</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>굴욕/NNG 감/XSN</t>
+          <t>굴욕감/NNG</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>그/NP 자식/NNG</t>
+          <t>그[01]/NP 자식[01]/NNG</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>근심/NNG 스럽/XSA</t>
+          <t>근심스럽/VA</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>글썽글썽/MAG</t>
+          <t>글썽글썽하/VA</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>급박/NNG</t>
+          <t>급박하/VA</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>기겁/NNG</t>
+          <t>기겁하/VV</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>기구/NNG</t>
+          <t>기구하[02]/VA</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>기이/NNG</t>
+          <t>기이하[02]/VA</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>기절/NNG</t>
+          <t>기절초풍하/VV</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>기절/NNG 초풍/NNG</t>
+          <t>기절하[01]/VA</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>기진/NNG 맥진/NNG</t>
+          <t>기진맥진하/VV</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>긴박/NNG</t>
+          <t>긴박하[01]/VA</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>긴장/NNG 되/XSV</t>
+          <t>긴장되/VV</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>나쁘/VA</t>
+          <t>나쁘[01]/VA</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>낙담/NNG</t>
+          <t>낙담하/VV</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>낙망/NNG</t>
+          <t>낙망하/VV</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>낙심/NNG</t>
+          <t>낙심하/VV</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>낭패/NNG 스럽/XSA</t>
+          <t>낭패스럽/VA</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>노심/NNG 초사/NNG</t>
+          <t>노심초사하/VV</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>노파/NNG 심/XSN</t>
+          <t>노파심/NNG</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>놀림/NNG</t>
+          <t>놀림[01]/NNG</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>누명/NNG</t>
+          <t>누명[01]/NNG</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>눈/NNG 물/NNG</t>
+          <t>눈물[02]/NNG</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>당혹/NNG</t>
+          <t>당혹하/VV</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>당황/NNG</t>
+          <t>당황하/VV</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>두렵/VA</t>
+          <t>두렵[01]/VA</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>뒤숭숭/MAG</t>
+          <t>뒤숭숭하/VA</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>떨리/VV</t>
+          <t>떨리[01]/VV</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>망막/NNG</t>
+          <t>망막하/VA</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>망연/NNG 자실/NNG</t>
+          <t>망연자실하/VV</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>맥/NNG 빠지/VV</t>
+          <t>맥[01]/NNG 빠지[01]/VV</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>모멸/NNG 감/XSN</t>
+          <t>모멸감/NNG</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>모욕/NNG</t>
+          <t>모욕[02]/NNG</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>모욕/NNG 적/XSN</t>
+          <t>모욕적/NNG</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>못/MAG 되/VV</t>
+          <t>못[04]/MAG 되[01]/VV</t>
         </is>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>무/XPN 관심/NNG</t>
+          <t>무관심/NNG</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>무력/NNG 감/XSN</t>
+          <t>무력감/NNG</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>무료/NNG</t>
+          <t>무료하/VA</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>무시무시/MAG</t>
+          <t>무시무시하/VA</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>무안/NNG</t>
+          <t>무안하/VA</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>뭉클/MAG</t>
+          <t>뭉클하/VA</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>미안/NNG</t>
+          <t>미안하/VA</t>
         </is>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>배신/NNG 감/XSN</t>
+          <t>배신감/NNG</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>버럭/MAG</t>
+          <t>버럭[01]/MAG</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>복수/NNG</t>
+          <t>복수[09]/NNG</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>복수/NNG 심/XSN</t>
+          <t>복수심/NNG</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>복종/NNG</t>
+          <t>복종[01]/NNG</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>부담/NNG 스럽/XSA</t>
+          <t>부담스럽/VA</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>분개/NNG</t>
+          <t>분개하[03]/VV</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>분노/NNG</t>
+          <t>분노하/VV</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>분통/NNG 터지/VV</t>
+          <t>분통[02]/NNG 터지/VV</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>분하/VA</t>
+          <t>분하[03]/VA</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>불/XPN 만족/NNG</t>
+          <t>불만/NNG</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>불만/NNG</t>
+          <t>불만스럽/VA</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>불만/NNG 스럽/XSA</t>
+          <t>불만족하/VA</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>불안/NNG</t>
+          <t>불안[01]/NNG</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>불안정/NNG</t>
+          <t>불안정하/VA</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>불유쾌하/VA</t>
+          <t>불안하/VA</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>불쾌하/VA</t>
+          <t>불유쾌하/VA</t>
         </is>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>불편/NNG</t>
+          <t>불쾌하/VA</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>불행/NNG</t>
+          <t>불편하[01]/VA</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>비극/NNG</t>
+          <t>불행하/VA</t>
         </is>
       </c>
     </row>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>비난/NNG</t>
+          <t>비극/NNG</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>비린/NNG 내/NNG</t>
+          <t>비난/NNG</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>비아냥거리/VV</t>
+          <t>비린내/NNG</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>비웃/NNG 음/XSN</t>
+          <t>비아냥거리/VV</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>비찬하/VA</t>
+          <t>비웃음/NNG</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>비참/NNG</t>
+          <t>비찬하/VA</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>비통/NNG</t>
+          <t>비참하/VA</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>빈민/NNG</t>
+          <t>비통하[01]/VA</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>빈정거리/VV</t>
+          <t>빈민/NNG</t>
         </is>
       </c>
     </row>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>빌어먹을/MM</t>
+          <t>빈정거리/VV</t>
         </is>
       </c>
     </row>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>뼈아프/VA</t>
+          <t>빌어먹을/MM</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>뼈저리/VA</t>
+          <t>뼈아프/VA</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>뾰루퉁/MAG</t>
+          <t>뼈저리/VA</t>
         </is>
       </c>
     </row>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>삐딱/MAG</t>
+          <t>뾰루퉁/MAG 하[01]/XSA</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>삐치/VV</t>
+          <t>삐딱하/VA</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>사기/NNG 꾼/XSN</t>
+          <t>삐치[01]/VV</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>사무치/VV</t>
+          <t>사기꾼/NNG</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>살벌/NNG</t>
+          <t>사무치/VV</t>
         </is>
       </c>
     </row>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>살인/NNG</t>
+          <t>살벌하/VA</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>상실/NNG 감/XSN</t>
+          <t>살인/NNG</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>상처/NNG</t>
+          <t>상실감/NNG</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>새파래/NNG 지/VV</t>
+          <t>상처[02]/NNG</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>서럽/VA</t>
+          <t>새파래/NNG 지[05]/VV</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>서먹하/VA</t>
+          <t>서럽/VA</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>서운하/VA</t>
+          <t>서먹하/VA</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>섬뜩/MAG</t>
+          <t>서운하/VA</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>섭섭하/VA</t>
+          <t>섬뜩하/VA</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>소름/NNG 끼치/VV</t>
+          <t>섭섭하[01]/VA</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>소외/NNG 감/XSN</t>
+          <t>소름/NNG 끼치[01]/VV</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>속/NNG 앓이/NNG</t>
+          <t>소외감/NNG</t>
         </is>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>속썩/NNG 이/VCP</t>
+          <t>속썩/NNG 이[01]/VCP</t>
         </is>
       </c>
     </row>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>속임/NNG 수/NNG</t>
+          <t>속앓이/NNG</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>송구/NNG</t>
+          <t>속임수/NNG</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>쇼킹하/VA</t>
+          <t>송구하[01]/VA</t>
         </is>
       </c>
     </row>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>수치/NNG 스럽/XSA</t>
+          <t>쇼킹하/VA</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>숙연하/VA</t>
+          <t>수치스럽/VA</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>스산하/VA</t>
+          <t>숙연하/VA</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>슬퍼하/VV</t>
+          <t>스산하/VA</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>시덥잖/VA</t>
+          <t>슬퍼하/VV</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>시비/NNG</t>
+          <t>시덥잖/VA</t>
         </is>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>신경질/NNG 적/XSN</t>
+          <t>시비[05]/NNG</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>신물/NNG 나/VV</t>
+          <t>신경질적/NNG</t>
         </is>
       </c>
     </row>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>신통찮/VA</t>
+          <t>신물[01]/NNG 나[01]/VV</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>실망/NNG</t>
+          <t>신통찮/VA</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>실업/NNG 자/XSN</t>
+          <t>실망하[02]/VV</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>실패/NNG</t>
+          <t>실업자/NNG</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>싫/VA</t>
+          <t>실패[02]/NNG</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>싫증/NNG 나/VV</t>
+          <t>싫[01]/VA</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>심각하/VA</t>
+          <t>싫증/NNG 나[01]/VV</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>심드렁/MAG</t>
+          <t>심각하[02]/VA</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>심란하/VA</t>
+          <t>심드렁하/VA</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>심려/NNG</t>
+          <t>심란하/VA</t>
         </is>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>심술/NNG 궃/VV</t>
+          <t>심려하[01]/VV</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>심심하/VA</t>
+          <t>심술/NNG 궃/VV</t>
         </is>
       </c>
     </row>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>심통/NNG</t>
+          <t>심심하[01]/VA</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>싱숭생숭/MAG</t>
+          <t>심통[02]/NNG</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>싸가지/NNG</t>
+          <t>싱숭생숭하/VA</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>쓴웃음/NNG</t>
+          <t>싸가지/NNG</t>
         </is>
       </c>
     </row>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>쓸쓸하/VA</t>
+          <t>쓴웃음/NNG</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>씁쓸하/VA</t>
+          <t>쓸쓸하/VA</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>씨부렁거리/VV</t>
+          <t>씁쓸하/VA</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>씩씩거리/VV</t>
+          <t>씨부렁거리/VV</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>아깝/VA</t>
+          <t>씩씩거리/VV</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>아니/VCN 꼽다/EF</t>
+          <t>아깝/VA</t>
         </is>
       </c>
     </row>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>아련하/VA</t>
+          <t>아니/VCN 꼽다/EF</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>아뿔싸/IC</t>
+          <t>아련하/VA</t>
         </is>
       </c>
     </row>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>아쉽/VA</t>
+          <t>아뿔싸/IC</t>
         </is>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>아슬아슬/MAG</t>
+          <t>아쉽/VA</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>아악/NNG</t>
+          <t>아슬아슬하/VA</t>
         </is>
       </c>
     </row>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>아연실색/NNG</t>
+          <t>아악/NNG</t>
         </is>
       </c>
     </row>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>아유/IC</t>
+          <t>아연실색하/VV</t>
         </is>
       </c>
     </row>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>아으/IC</t>
+          <t>아유[01]/IC</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>아이/NNP 씨/NNB</t>
+          <t>아으[01]/IC</t>
         </is>
       </c>
     </row>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>아이고/IC</t>
+          <t>아이/NNP 씨[07]/NNB</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>아찔하/VA</t>
+          <t>아이고/IC</t>
         </is>
       </c>
     </row>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>아프/VA</t>
+          <t>아찔하/VA</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>아휴/IC</t>
+          <t>아프/VA</t>
         </is>
       </c>
     </row>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>악취/NNG</t>
+          <t>아휴/IC</t>
         </is>
       </c>
     </row>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>안쓰럽/VA</t>
+          <t>악취[01]/NNG</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>안절부절/MAG</t>
+          <t>안쓰럽/VA</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>안타깝/VA</t>
+          <t>안절부절하/VV</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>암담하/VA</t>
+          <t>안타깝/VA</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>암살/NNG</t>
+          <t>암담하/VA</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>암울/NNG</t>
+          <t>암살[03]/NNG</t>
         </is>
       </c>
     </row>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>압수/NNG</t>
+          <t>암울하/VA</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>애끓/VV</t>
+          <t>압수[02]/NNG</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>애달프/VA</t>
+          <t>애끓/VV</t>
         </is>
       </c>
     </row>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>애도/NNG</t>
+          <t>애달프/VA</t>
         </is>
       </c>
     </row>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>애석/NNG</t>
+          <t>애도하/VV</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>애잔하/VA</t>
+          <t>애석하[01]/VA</t>
         </is>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>애처/NNG 롭/XSA</t>
+          <t>애잔하/VA</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>애통/NNG</t>
+          <t>애처롭/VA</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>애틋하/VA</t>
+          <t>애통하[01]/VA</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>야박/NNG</t>
+          <t>애틋하/VA</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>야비하/VA</t>
+          <t>야박하[02]/VA</t>
         </is>
       </c>
     </row>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>야속/NNG</t>
+          <t>야비하/VA</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>약오르/VV</t>
+          <t>야속하/VA</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>얄밉/VA</t>
+          <t>약오르/VV</t>
         </is>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>어색/NNG</t>
+          <t>얄밉/VA</t>
         </is>
       </c>
     </row>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>어이없/VA</t>
+          <t>어색하[02]/VA</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>억압/NNG</t>
+          <t>어이없/VA</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>억울하/VA</t>
+          <t>억압/NNG</t>
         </is>
       </c>
     </row>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>언짢/VA</t>
+          <t>억울하/VA</t>
         </is>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>역겹/VA</t>
+          <t>언짢/VA</t>
         </is>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>열등/NNG 감/XSN</t>
+          <t>역겹/VA</t>
         </is>
       </c>
     </row>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>염려/NNG</t>
+          <t>열등감/NNG</t>
         </is>
       </c>
     </row>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>오그라들/VV</t>
+          <t>염려하[01]/VV</t>
         </is>
       </c>
     </row>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>오싹/MAG</t>
+          <t>오그라들/VV</t>
         </is>
       </c>
     </row>
@@ -3361,7 +3361,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>와/NNG 들/XSN 와/JKB 들/XSN</t>
+          <t>오싹하/VV</t>
         </is>
       </c>
     </row>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>외롭/VA</t>
+          <t>와들/NNG 와/JKB 들[09]/XSN</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>외톨이/NNG</t>
+          <t>외롭/VA</t>
         </is>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>우습/VA</t>
+          <t>외톨이/NNG</t>
         </is>
       </c>
     </row>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>우울/NNG</t>
+          <t>우습/VA</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>욱컥하/VA</t>
+          <t>우울하/VA</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>운분/NNG</t>
+          <t>욱컥하/VA</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>울/NNG 상/NNG</t>
+          <t>운분/NNG</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>울/VV</t>
+          <t>울[01]/VV</t>
         </is>
       </c>
     </row>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>울음/NNG</t>
+          <t>울상/NNG</t>
         </is>
       </c>
     </row>
@@ -3491,7 +3491,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>울적/NNG</t>
+          <t>울음/NNG</t>
         </is>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>울화/NNG 통/NNG</t>
+          <t>울적하[01]/VA</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>웃음/NNG 거리/XSN</t>
+          <t>울화통/NNG</t>
         </is>
       </c>
     </row>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>원망/NNG</t>
+          <t>웃음거리/NNG</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>원통/NNG</t>
+          <t>원망하[01]/VV</t>
         </is>
       </c>
     </row>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>원한/NNG</t>
+          <t>원통하[01]/VA</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>웬수/NNG</t>
+          <t>원한/NNG</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>위축/NNG 되/XSV</t>
+          <t>웬수/NNG</t>
         </is>
       </c>
     </row>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>위험/NNG</t>
+          <t>위축되/VV</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>유감/NNG 스럽/XSA</t>
+          <t>위험/NNG</t>
         </is>
       </c>
     </row>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>융측하/VA</t>
+          <t>유감스럽/VA</t>
         </is>
       </c>
     </row>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>으스스/MAG</t>
+          <t>융측하/VA</t>
         </is>
       </c>
     </row>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>으앙/IC</t>
+          <t>으스스하/VA</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>으이구/IC</t>
+          <t>으앙/IC</t>
         </is>
       </c>
     </row>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>을씨년스럽/VA</t>
+          <t>으이구/IC</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>음울하/VA</t>
+          <t>을씨년스럽/VA</t>
         </is>
       </c>
     </row>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>의식/NNG 스럽/XSA</t>
+          <t>음울하/VA</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>의심/NNG</t>
+          <t>의식[03]/NNG 스럽/XSA</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>이별/NNG</t>
+          <t>의심[03]/NNG</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>이상/NNG</t>
+          <t>이별/NNG</t>
         </is>
       </c>
     </row>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>이혼/NNG</t>
+          <t>이상하/VA</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>자괴/NNG 감/XSN</t>
+          <t>이혼[03]/NNG</t>
         </is>
       </c>
     </row>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>자살/NNG</t>
+          <t>자괴감/NNG</t>
         </is>
       </c>
     </row>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>자책/NNG</t>
+          <t>자살[01]/NNG</t>
         </is>
       </c>
     </row>
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>자포/NNG 자기/NNG</t>
+          <t>자책하/VV</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>잔인/NNG</t>
+          <t>자포자기하/VV</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>잔혹/NNG</t>
+          <t>잔인하/VA</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>잘긍나/VV</t>
+          <t>잔혹하/VA</t>
         </is>
       </c>
     </row>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>장례/NNG 식/XSN</t>
+          <t>잘긍나/VV</t>
         </is>
       </c>
     </row>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>장애/NNG</t>
+          <t>장례식/NNG</t>
         </is>
       </c>
     </row>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>재미없/VA</t>
+          <t>장애[02]/NNG</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>재앙/NNG</t>
+          <t>재미없/VA</t>
         </is>
       </c>
     </row>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>적개/NNG 심/XSN</t>
+          <t>재앙/NNG</t>
         </is>
       </c>
     </row>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>적적/NNG</t>
+          <t>적개심/NNG</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>전전긍긍/NNG</t>
+          <t>적적하[02]/VA</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>절규/NNG</t>
+          <t>전전긍긍하/VV</t>
         </is>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>절망/NNG</t>
+          <t>절규하/VV</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>절박하/VA</t>
+          <t>절망하[02]/VV</t>
         </is>
       </c>
     </row>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>절실하/VA</t>
+          <t>절박하[01]/VA</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>절절/NNG</t>
+          <t>절실하/VA</t>
         </is>
       </c>
     </row>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>절절/NNG 매/VV</t>
+          <t>절절[05]/NNG 매[01]/VV</t>
         </is>
       </c>
     </row>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>정떨어지/VV</t>
+          <t>절절하[02]/VA</t>
         </is>
       </c>
     </row>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>제기랄/IC</t>
+          <t>정떨어지/VV</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>조롱/NNG</t>
+          <t>제기랄/IC</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>조마조마/MAG</t>
+          <t>조롱[03]/NNG</t>
         </is>
       </c>
     </row>
@@ -3941,7 +3941,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>조바심/NNG</t>
+          <t>조마조마하/VA</t>
         </is>
       </c>
     </row>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>좌절/NNG 감/XSN</t>
+          <t>조바심하[01]/VV</t>
         </is>
       </c>
     </row>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>좌절/NNG 되/XSV</t>
+          <t>좌절감/NNG</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>죄송하/VA</t>
+          <t>좌절되/VV</t>
         </is>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>죄책/NNG 감/XSN</t>
+          <t>죄송하/VA</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>주눅/NNG 들/VV</t>
+          <t>죄책감/NNG</t>
         </is>
       </c>
     </row>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>증오/NNG</t>
+          <t>주눅/NNG 들[01]/VV</t>
         </is>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>지겹/VA</t>
+          <t>증오하[01]/VV</t>
         </is>
       </c>
     </row>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>지긋지긋/MAG</t>
+          <t>지겹/VA</t>
         </is>
       </c>
     </row>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>지끈거리/VV</t>
+          <t>지긋지긋하/VA</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>지독하/VA</t>
+          <t>지끈거리[02]/VV</t>
         </is>
       </c>
     </row>
@@ -4051,7 +4051,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>지랄/NNG</t>
+          <t>지독하/VA</t>
         </is>
       </c>
     </row>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>지루하/VA</t>
+          <t>지랄하/VV</t>
         </is>
       </c>
     </row>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>진노/NNG</t>
+          <t>지루하[01]/VA</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>진저리/NNG 나/VV</t>
+          <t>진노하[02]/VV</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>질겁/NNG</t>
+          <t>진저리/NNG 나[01]/VV</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>질투/NNG</t>
+          <t>질겁하/VV</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>징그럽/VA</t>
+          <t>질투하/VV</t>
         </is>
       </c>
     </row>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>짜증/NNG 나/VV</t>
+          <t>징그럽/VA</t>
         </is>
       </c>
     </row>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>짠하/VA</t>
+          <t>짜증/NNG 나[01]/VV</t>
         </is>
       </c>
     </row>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>쩔쩔매/VV</t>
+          <t>짠하/VA</t>
         </is>
       </c>
     </row>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>쭈뼛거리/VV</t>
+          <t>쩔쩔매/VV</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>찜찜하/VA</t>
+          <t>쭈뼛거리/VV</t>
         </is>
       </c>
     </row>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>찡/MAG</t>
+          <t>찜찜하/VA</t>
         </is>
       </c>
     </row>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>착잡하/VA</t>
+          <t>찡하[01]/VA</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>착취/NNG</t>
+          <t>착잡하/VA</t>
         </is>
       </c>
     </row>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>참담/NNG</t>
+          <t>착취/NNG</t>
         </is>
       </c>
     </row>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>참속하/VA</t>
+          <t>참담하/VA</t>
         </is>
       </c>
     </row>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>참회/NNG 이/VCP 다/EF 하/SS</t>
+          <t>참속하/VA</t>
         </is>
       </c>
     </row>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>창피/NNG</t>
+          <t>참회[03]/NNG 이[01]/VCP 다/EF 하/SS</t>
         </is>
       </c>
     </row>
@@ -4241,7 +4241,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>처량하/VA</t>
+          <t>창피/NNG</t>
         </is>
       </c>
     </row>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>처벌/NNG</t>
+          <t>처량하/VA</t>
         </is>
       </c>
     </row>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>처절/NNG</t>
+          <t>처벌/NNG</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>처참/NNG</t>
+          <t>처절하[02]/VA</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>철렁하/VA</t>
+          <t>처참하[01]/VA</t>
         </is>
       </c>
     </row>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>청승/NNG 맞/VV</t>
+          <t>철렁하[01]/VA</t>
         </is>
       </c>
     </row>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>체념/NNG</t>
+          <t>청승[01]/NNG 맞[01]/VV</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>체포/NNG</t>
+          <t>체념[02]/NNG</t>
         </is>
       </c>
     </row>
@@ -4321,7 +4321,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>초라하/VA</t>
+          <t>체포/NNG</t>
         </is>
       </c>
     </row>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>초조/NNG</t>
+          <t>초라하/VA</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>출혈/NNG</t>
+          <t>초조하/VA</t>
         </is>
       </c>
     </row>
@@ -4351,7 +4351,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>충격/NNG 적/XSN</t>
+          <t>출혈/NNG</t>
         </is>
       </c>
     </row>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>측은/NNG</t>
+          <t>충격적/NNG</t>
         </is>
       </c>
     </row>
@@ -4371,7 +4371,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>치밀/VV 어/EC 오르/VV</t>
+          <t>측은하/VA</t>
         </is>
       </c>
     </row>
@@ -4381,7 +4381,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>치사/NNG</t>
+          <t>치밀/VV 어/EC 오르/VV</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>치욕/NNG 적/XSN</t>
+          <t>치사하[01]/VA</t>
         </is>
       </c>
     </row>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>침묵/NNG</t>
+          <t>치욕적/NNG</t>
         </is>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>침울하/VA</t>
+          <t>침묵/NNG</t>
         </is>
       </c>
     </row>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>침통/NNG</t>
+          <t>침울하/VA</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>칼/NNG 날/NNG</t>
+          <t>침통하/VA</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>코/NNG 웃음/NNG</t>
+          <t>칼날/NNG</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>탄복/NNG</t>
+          <t>코웃음/NNG</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>탄식/NNG</t>
+          <t>탄복하[02]/VV</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>테러/NNG</t>
+          <t>탄식하[02]/VV</t>
         </is>
       </c>
     </row>
@@ -4481,7 +4481,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>통탄/NNG</t>
+          <t>테러/NNG</t>
         </is>
       </c>
     </row>
@@ -4491,7 +4491,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>패배/NNG</t>
+          <t>통탄하/VV</t>
         </is>
       </c>
     </row>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>포로/NNG</t>
+          <t>패배/NNG</t>
         </is>
       </c>
     </row>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>폭력/NNG</t>
+          <t>포로[01]/NNG</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>폭탄/NNG</t>
+          <t>폭력/NNG</t>
         </is>
       </c>
     </row>
@@ -4531,7 +4531,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>피해/NNG</t>
+          <t>폭탄/NNG</t>
         </is>
       </c>
     </row>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>학대/NNG</t>
+          <t>피해[01]/NNG</t>
         </is>
       </c>
     </row>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>한/NNG 스럽/XSA</t>
+          <t>학대[01]/NNG</t>
         </is>
       </c>
     </row>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>한숨/NNG</t>
+          <t>한숨[02]/NNG</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>한심하/VA</t>
+          <t>한스럽/VA</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>한탄/NNG</t>
+          <t>한심하/VA</t>
         </is>
       </c>
     </row>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>해괴하/VA</t>
+          <t>한탄하/VV</t>
         </is>
       </c>
     </row>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>허무/NNG</t>
+          <t>해괴하/VA</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>허전/NNG</t>
+          <t>허무하/VA</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>허탈/NNG</t>
+          <t>허전하[01]/VA</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>후회/NNG</t>
+          <t>허탈하/VA</t>
         </is>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>휑/MAG</t>
+          <t>후회하/VV</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>휘둥그레지/VV</t>
+          <t>휑하/VA</t>
         </is>
       </c>
     </row>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>흉/NNG 터/NNG</t>
+          <t>휘둥그레지/VV</t>
         </is>
       </c>
     </row>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>흐느낌/NNG</t>
+          <t>흉터/NNG</t>
         </is>
       </c>
     </row>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>흑흑/NNG</t>
+          <t>흐느낌/NNG</t>
         </is>
       </c>
     </row>
@@ -4691,7 +4691,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>흥분/NNG</t>
+          <t>흑흑/NNG</t>
         </is>
       </c>
     </row>
@@ -4700,6 +4700,16 @@
         <v>426</v>
       </c>
       <c r="B427" t="inlineStr">
+        <is>
+          <t>흥분하/VV</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B428" t="inlineStr">
         <is>
           <t>희롱/NNG</t>
         </is>

--- a/data/Emotional-Vocab-Neg-anal.xlsx
+++ b/data/Emotional-Vocab-Neg-anal.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>가관[02]/NNG 이[01]/VCP</t>
+          <t>가관/NNG 이/VCP</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>가난[01]/NNG</t>
+          <t>가난/NNG</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>가책[01]/NNG</t>
+          <t>가책/NNG</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>감옥[02]/NNG</t>
+          <t>감옥/NNG</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>강도[05]/NNG</t>
+          <t>강도/NNG</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>거슬리[01]/VV</t>
+          <t>거슬리/VV</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>거지[01]/NNG 같/VA</t>
+          <t>거지/NNG 같/VA</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>겁나[02]/VV</t>
+          <t>겁나/VV</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>격분하[01]/VV</t>
+          <t>격분하/VV</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>격양되[01]/VV</t>
+          <t>격양되/VV</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>격하[02]/VA 어/EC 지[04]/VX</t>
+          <t>격하/VA 어/EC 지/VX</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>고단하[01]/VA</t>
+          <t>고단하/VA</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>고독하[02]/VA</t>
+          <t>고독하/VA</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>고문[04]/NNG</t>
+          <t>고문/NNG</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>골치[01]/NNG 아프/VA</t>
+          <t>골치/NNG 아프/VA</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>공격[02]/NNG</t>
+          <t>공격/NNG</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>공포[08]/NNG</t>
+          <t>공포/NNG</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>공허하[02]/VA</t>
+          <t>공허하/VA</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>괴상하[02]/VA</t>
+          <t>괴상하/VA</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>괴성[01]/NNG</t>
+          <t>괴성/NNG</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>괴한[01]/NNG</t>
+          <t>괴한/NNG</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>구더기[01]/NNG</t>
+          <t>구더기/NNG</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>구역질/NNG 나[01]/VV</t>
+          <t>구역질/NNG 나/VV</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>구차하[02]/VA</t>
+          <t>구차하/VA</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>구토[01]/NNG</t>
+          <t>구토/NNG</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>그[01]/NP 자식[01]/NNG</t>
+          <t>그/NP 자식/NNG</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>기구하[02]/VA</t>
+          <t>기구하/VA</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>기이하[02]/VA</t>
+          <t>기이하/VA</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>기절하[01]/VA</t>
+          <t>기절하/VA</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>긴박하[01]/VA</t>
+          <t>긴박하/VA</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>나쁘[01]/VA</t>
+          <t>나쁘/VA</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>놀림[01]/NNG</t>
+          <t>놀림/NNG</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>누명[01]/NNG</t>
+          <t>누명/NNG</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>눈물[02]/NNG</t>
+          <t>눈물/NNG</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>두렵[01]/VA</t>
+          <t>두렵/VA</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>떨리[01]/VV</t>
+          <t>떨리/VV</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>맥[01]/NNG 빠지[01]/VV</t>
+          <t>맥/NNG 빠지/VV</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>모욕[02]/NNG</t>
+          <t>모욕/NNG</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>못[04]/MAG 되[01]/VV</t>
+          <t>못/MAG 되/VV</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>버럭[01]/MAG</t>
+          <t>버럭/MAG</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>복수[09]/NNG</t>
+          <t>복수/NNG</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>복종[01]/NNG</t>
+          <t>복종/NNG</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>분개하[03]/VV</t>
+          <t>분개하/VV</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>분통[02]/NNG 터지/VV</t>
+          <t>분통/NNG 터지/VV</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>분하[03]/VA</t>
+          <t>분하/VA</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>불안[01]/NNG</t>
+          <t>불안/NNG</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>불편하[01]/VA</t>
+          <t>불편하/VA</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>비통하[01]/VA</t>
+          <t>비통하/VA</t>
         </is>
       </c>
     </row>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>뾰루퉁/MAG 하[01]/XSA</t>
+          <t>뾰루퉁/MAG 하/XSA</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>삐치[01]/VV</t>
+          <t>삐치/VV</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>상처[02]/NNG</t>
+          <t>상처/NNG</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>새파래/NNG 지[05]/VV</t>
+          <t>새파래/NNG 지/VV</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>섭섭하[01]/VA</t>
+          <t>섭섭하/VA</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>소름/NNG 끼치[01]/VV</t>
+          <t>소름/NNG 끼치/VV</t>
         </is>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>속썩/NNG 이[01]/VCP</t>
+          <t>속썩/NNG 이/VCP</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>송구하[01]/VA</t>
+          <t>송구하/VA</t>
         </is>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>시비[05]/NNG</t>
+          <t>시비/NNG</t>
         </is>
       </c>
     </row>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>신물[01]/NNG 나[01]/VV</t>
+          <t>신물/NNG 나/VV</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>실망하[02]/VV</t>
+          <t>실망하/VV</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>실패[02]/NNG</t>
+          <t>실패/NNG</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>싫[01]/VA</t>
+          <t>싫/VA</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>싫증/NNG 나[01]/VV</t>
+          <t>싫증/NNG 나/VV</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>심각하[02]/VA</t>
+          <t>심각하/VA</t>
         </is>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>심려하[01]/VV</t>
+          <t>심려하/VV</t>
         </is>
       </c>
     </row>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>심심하[01]/VA</t>
+          <t>심심하/VA</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>심통[02]/NNG</t>
+          <t>심통/NNG</t>
         </is>
       </c>
     </row>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>아유[01]/IC</t>
+          <t>아유/IC</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>아으[01]/IC</t>
+          <t>아으/IC</t>
         </is>
       </c>
     </row>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>아이/NNP 씨[07]/NNB</t>
+          <t>아이/NNP 씨/NNB</t>
         </is>
       </c>
     </row>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>악취[01]/NNG</t>
+          <t>악취/NNG</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>암살[03]/NNG</t>
+          <t>암살/NNG</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>압수[02]/NNG</t>
+          <t>압수/NNG</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>애석하[01]/VA</t>
+          <t>애석하/VA</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>애통하[01]/VA</t>
+          <t>애통하/VA</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>야박하[02]/VA</t>
+          <t>야박하/VA</t>
         </is>
       </c>
     </row>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>어색하[02]/VA</t>
+          <t>어색하/VA</t>
         </is>
       </c>
     </row>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>염려하[01]/VV</t>
+          <t>염려하/VV</t>
         </is>
       </c>
     </row>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>와들/NNG 와/JKB 들[09]/XSN</t>
+          <t>와들/NNG 와/JKB 들/XSN</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>울[01]/VV</t>
+          <t>울/VV</t>
         </is>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>울적하[01]/VA</t>
+          <t>울적하/VA</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>원망하[01]/VV</t>
+          <t>원망하/VV</t>
         </is>
       </c>
     </row>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>원통하[01]/VA</t>
+          <t>원통하/VA</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>의식[03]/NNG 스럽/XSA</t>
+          <t>의식/NNG 스럽/XSA</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>의심[03]/NNG</t>
+          <t>의심/NNG</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>이혼[03]/NNG</t>
+          <t>이혼/NNG</t>
         </is>
       </c>
     </row>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>자살[01]/NNG</t>
+          <t>자살/NNG</t>
         </is>
       </c>
     </row>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>장애[02]/NNG</t>
+          <t>장애/NNG</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>적적하[02]/VA</t>
+          <t>적적하/VA</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>절망하[02]/VV</t>
+          <t>절망하/VV</t>
         </is>
       </c>
     </row>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>절박하[01]/VA</t>
+          <t>절박하/VA</t>
         </is>
       </c>
     </row>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>절절[05]/NNG 매[01]/VV</t>
+          <t>절절/NNG 매/VV</t>
         </is>
       </c>
     </row>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>절절하[02]/VA</t>
+          <t>절절하/VA</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>조롱[03]/NNG</t>
+          <t>조롱/NNG</t>
         </is>
       </c>
     </row>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>조바심하[01]/VV</t>
+          <t>조바심하/VV</t>
         </is>
       </c>
     </row>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>주눅/NNG 들[01]/VV</t>
+          <t>주눅/NNG 들/VV</t>
         </is>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>증오하[01]/VV</t>
+          <t>증오하/VV</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>지끈거리[02]/VV</t>
+          <t>지끈거리/VV</t>
         </is>
       </c>
     </row>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>지루하[01]/VA</t>
+          <t>지루하/VA</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>진노하[02]/VV</t>
+          <t>진노하/VV</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>진저리/NNG 나[01]/VV</t>
+          <t>진저리/NNG 나/VV</t>
         </is>
       </c>
     </row>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>짜증/NNG 나[01]/VV</t>
+          <t>짜증/NNG 나/VV</t>
         </is>
       </c>
     </row>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>찡하[01]/VA</t>
+          <t>찡하/VA</t>
         </is>
       </c>
     </row>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>참회[03]/NNG 이[01]/VCP 다/EF 하/SS</t>
+          <t>참회/NNG 이/VCP 다/EF 하/SS</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>처절하[02]/VA</t>
+          <t>처절하/VA</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>처참하[01]/VA</t>
+          <t>처참하/VA</t>
         </is>
       </c>
     </row>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>철렁하[01]/VA</t>
+          <t>철렁하/VA</t>
         </is>
       </c>
     </row>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>청승[01]/NNG 맞[01]/VV</t>
+          <t>청승/NNG 맞/VV</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>체념[02]/NNG</t>
+          <t>체념/NNG</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>치사하[01]/VA</t>
+          <t>치사하/VA</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>탄복하[02]/VV</t>
+          <t>탄복하/VV</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>탄식하[02]/VV</t>
+          <t>탄식하/VV</t>
         </is>
       </c>
     </row>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>포로[01]/NNG</t>
+          <t>포로/NNG</t>
         </is>
       </c>
     </row>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>피해[01]/NNG</t>
+          <t>피해/NNG</t>
         </is>
       </c>
     </row>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>학대[01]/NNG</t>
+          <t>학대/NNG</t>
         </is>
       </c>
     </row>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>한숨[02]/NNG</t>
+          <t>한숨/NNG</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>허전하[01]/VA</t>
+          <t>허전하/VA</t>
         </is>
       </c>
     </row>
